--- a/Dictionary.xlsx
+++ b/Dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="10320" activeTab="0"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="10320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,45 +24,1628 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="459">
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>tedious</t>
+  </si>
+  <si>
+    <t>harmful</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>hangover</t>
+  </si>
+  <si>
+    <t>concern</t>
+  </si>
+  <si>
+    <t>inclination</t>
+  </si>
+  <si>
+    <t>insomnia</t>
+  </si>
+  <si>
+    <t>exaggerate</t>
+  </si>
+  <si>
+    <t>deliberately</t>
+  </si>
+  <si>
+    <t>sprain</t>
+  </si>
+  <si>
+    <t>reserved</t>
+  </si>
+  <si>
+    <t>easy-going</t>
+  </si>
+  <si>
+    <t>insincere</t>
+  </si>
+  <si>
+    <t>eccentric</t>
+  </si>
+  <si>
+    <t>cheerful</t>
+  </si>
+  <si>
+    <t>forgetful</t>
+  </si>
+  <si>
+    <t>immature</t>
+  </si>
+  <si>
+    <t>conscientious</t>
+  </si>
+  <si>
+    <t>bad-tempered</t>
+  </si>
+  <si>
+    <t>vain</t>
+  </si>
+  <si>
+    <t>adventurous</t>
+  </si>
+  <si>
+    <t>self-confident</t>
+  </si>
+  <si>
+    <t>adjective</t>
+  </si>
+  <si>
+    <t>rɪˈdɪkjələs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нелепый  
+ нелепо </t>
+  </si>
+  <si>
+    <t>very silly</t>
+  </si>
+  <si>
+    <t>I've never heard anything so ridiculous. 
+ ridiculously expensive</t>
+  </si>
+  <si>
+    <t>noun</t>
+  </si>
+  <si>
+    <t>ˌɪnklɪˈneɪʃən</t>
+  </si>
+  <si>
+    <t xml:space="preserve">склонность, желание </t>
+  </si>
+  <si>
+    <t>a feeling that you want to do something</t>
+  </si>
+  <si>
+    <t>[ + to do sth ] 
+ She showed little inclination to leave.</t>
+  </si>
+  <si>
+    <t>ˈtiːdiəs</t>
+  </si>
+  <si>
+    <t>скучный  
+ скучно</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>a tedious job</t>
+  </si>
+  <si>
+    <t>ˌɪməˈtjʊər</t>
+  </si>
+  <si>
+    <t>незрелый  
+ неокончательно развившийся, молодой 
+ незрелость</t>
+  </si>
+  <si>
+    <t>not behaving in a way that is as wise and calm as people expect from someone your age 
+ not completely developed</t>
+  </si>
+  <si>
+    <t>Some of the boys are quite immature for their age. 
+ immature cells</t>
+  </si>
+  <si>
+    <t>ˌiːziˈɡəʊɪŋ</t>
+  </si>
+  <si>
+    <t>с легким характером</t>
+  </si>
+  <si>
+    <t>relaxed and not easily upset or worried</t>
+  </si>
+  <si>
+    <t>adverb</t>
+  </si>
+  <si>
+    <t>dɪˈlɪbərətli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">умышленно </t>
+  </si>
+  <si>
+    <t>intentionally, having planned to do something</t>
+  </si>
+  <si>
+    <t>He deliberately lied to the police.</t>
+  </si>
+  <si>
+    <t>ˈhæŋəʊvər</t>
+  </si>
+  <si>
+    <t>похмелье</t>
+  </si>
+  <si>
+    <t>If you have a hangover, you feel ill because you drank too much alcohol the day before.</t>
+  </si>
+  <si>
+    <t>ˌkɒnʃiˈenʃəs</t>
+  </si>
+  <si>
+    <t>добросовестный  
+ добросовестно</t>
+  </si>
+  <si>
+    <t>always doing your work with a lot of care</t>
+  </si>
+  <si>
+    <t>a conscientious student</t>
+  </si>
+  <si>
+    <t>rɪˈzɜːvd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сдержанный, замкнутый </t>
+  </si>
+  <si>
+    <t>not wanting to show what you are thinking or feeling</t>
+  </si>
+  <si>
+    <t>a quiet, reserved woman</t>
+  </si>
+  <si>
+    <t>fəˈɡetfəl</t>
+  </si>
+  <si>
+    <t>забывчивый  
+ забывчивость</t>
+  </si>
+  <si>
+    <t>often forgetting things</t>
+  </si>
+  <si>
+    <t>She's 84 now and getting a bit forgetful.</t>
+  </si>
+  <si>
+    <t>ˌbædˈtempəd</t>
+  </si>
+  <si>
+    <t>раздражительный, вздорный</t>
+  </si>
+  <si>
+    <t>a bad-tempered person gets angry or annoyed easily</t>
+  </si>
+  <si>
+    <t>Sam's been bad-tempered recently, is something worrying him?</t>
+  </si>
+  <si>
+    <t>veɪn</t>
+  </si>
+  <si>
+    <t>тщеславный, самовлюбленный  
+ тщетно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  without any success    тщетно   I tried in vain to start a conversation.  
+   an attempt/effort, etc that does not have the result you want    тщетная попытка/тщетное усилие/тщетная надежда     
+ too interested in your own appearance and thinking you are very attractive</t>
+  </si>
+  <si>
+    <t>verb</t>
+  </si>
+  <si>
+    <t>spreɪn</t>
+  </si>
+  <si>
+    <t>растянуть связки  
+ растяжение сустава</t>
+  </si>
+  <si>
+    <t>to injure part of your body by twisting it, but not so badly that it breaks</t>
+  </si>
+  <si>
+    <t>I slipped on the ice and sprained my ankle.</t>
+  </si>
+  <si>
+    <t>ɪɡˈzædʒəreɪt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">преувеличивать </t>
+  </si>
+  <si>
+    <t>to make something seem larger, better, worse, etc than it really is</t>
+  </si>
+  <si>
+    <t>Don't exaggerate - it didn't cost that much!</t>
+  </si>
+  <si>
+    <t>ədˈventʃərəs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">смелый  
+ полный приключений </t>
+  </si>
+  <si>
+    <t>willing to try new and often difficult things 
+ exciting and often dangerous</t>
+  </si>
+  <si>
+    <t>I'm trying to be more adventurous with my cooking. 
+ He led an adventurous life.</t>
+  </si>
+  <si>
+    <t>ˌselfˈkɒnfidənt</t>
+  </si>
+  <si>
+    <t>уверенный в себе  
+ уверенность в себе</t>
+  </si>
+  <si>
+    <t>feeling sure about yourself and your abilities 
+ being self-confident</t>
+  </si>
+  <si>
+    <t>ˈhɑːmfəl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вредный </t>
+  </si>
+  <si>
+    <t>causing or likely to cause harm</t>
+  </si>
+  <si>
+    <t>Doctors believe that smoking is harmful to your health.</t>
+  </si>
+  <si>
+    <t>ɪnˈsɒmniə</t>
+  </si>
+  <si>
+    <t>бессонница  
+ человек, страдающий бессонницей</t>
+  </si>
+  <si>
+    <t>the problem of not being able to sleep 
+ someone who often finds it difficult to sleep</t>
+  </si>
+  <si>
+    <t>ˌɪnsɪnˈsɪər</t>
+  </si>
+  <si>
+    <t>неискренний  
+ неискренне  
+ неискренность</t>
+  </si>
+  <si>
+    <t>pretending to feel something that you do not really feel, or not meaning what you say</t>
+  </si>
+  <si>
+    <t>an insincere apology</t>
+  </si>
+  <si>
+    <t>ˈtʃɪəfəl</t>
+  </si>
+  <si>
+    <t>веселый  
+ радостный  
+ весело, радостно  
+ радостное настроение</t>
+  </si>
+  <si>
+    <t>happy 
+ bright and pleasant to look at</t>
+  </si>
+  <si>
+    <t>I'm not feeling very cheerful today. 
+ a bright and cheerful room</t>
+  </si>
+  <si>
+    <t>ˌdʒiːdiːˈpiː</t>
+  </si>
+  <si>
+    <t>валовый внутренний продукт</t>
+  </si>
+  <si>
+    <t>abbreviation for Gross Domestic Product: the total value of goods and services that a country produces in a year</t>
+  </si>
+  <si>
+    <t>ɪkˈsentrɪk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">эксцентричный  
+ эксцентрично  
+ эксцентричность </t>
+  </si>
+  <si>
+    <t>behaving in a strange and unusual way 
+ eccentric behaviour</t>
+  </si>
+  <si>
+    <t>an eccentric professor 
+ eccentric behaviour</t>
+  </si>
+  <si>
+    <t>kənˈsɜːn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">затрагивать, интересовать  
+ беспокоить, волновать  
+ затрагивать (вопрос, проблему) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to involve someone or be important to them 
+ to worry or upset someone 
+ If a story, film, etc concerns a particular subject, it is about that subject. 
+   to become involved with doing something    заниматься, беспокоиться   You needn't concern yourself with the travel arrangements. </t>
+  </si>
+  <si>
+    <t>Environmental issues concern us all. 
+ What really concerns me is her lack of experience.</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>well-balanced</t>
+  </si>
+  <si>
+    <t>ambitious</t>
+  </si>
+  <si>
+    <t>impulsive</t>
+  </si>
+  <si>
+    <t>open-minded</t>
+  </si>
+  <si>
+    <t>loyal</t>
+  </si>
+  <si>
+    <t>stable</t>
+  </si>
+  <si>
+    <t>possessive</t>
+  </si>
+  <si>
+    <t>insecure</t>
+  </si>
+  <si>
+    <t>stubborn</t>
+  </si>
+  <si>
+    <t>arrogant</t>
+  </si>
+  <si>
+    <t>assertive</t>
+  </si>
+  <si>
+    <t>tend to</t>
+  </si>
+  <si>
+    <t>legible</t>
+  </si>
+  <si>
+    <t>Sagittarius</t>
+  </si>
+  <si>
+    <t>prospective</t>
+  </si>
+  <si>
+    <t>court</t>
+  </si>
+  <si>
+    <t>traffic jam</t>
+  </si>
+  <si>
+    <t>rush hour</t>
+  </si>
+  <si>
+    <t>reckon</t>
+  </si>
+  <si>
+    <t>sacrifice</t>
+  </si>
+  <si>
+    <t>victimize</t>
+  </si>
+  <si>
+    <t>plot</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>chapter</t>
+  </si>
+  <si>
+    <t>picnic</t>
+  </si>
+  <si>
+    <t>anxious</t>
+  </si>
+  <si>
+    <t>superstition</t>
+  </si>
+  <si>
+    <t>cabin crew</t>
+  </si>
+  <si>
+    <t>heart attack</t>
+  </si>
+  <si>
+    <t>horseshoe</t>
+  </si>
+  <si>
+    <t>dissatisfied</t>
+  </si>
+  <si>
+    <t>expired</t>
+  </si>
+  <si>
+    <t>torn</t>
+  </si>
+  <si>
+    <t>stale</t>
+  </si>
+  <si>
+    <t>rotten</t>
+  </si>
+  <si>
+    <t>department store</t>
+  </si>
+  <si>
+    <t>contradict</t>
+  </si>
+  <si>
+    <t>landline</t>
+  </si>
+  <si>
+    <t>marvel</t>
+  </si>
+  <si>
+    <t>marvellous</t>
+  </si>
+  <si>
+    <t>on location</t>
+  </si>
+  <si>
+    <t>scenery</t>
+  </si>
+  <si>
+    <t>soundtrack</t>
+  </si>
+  <si>
+    <t>unforgettable</t>
+  </si>
+  <si>
+    <t>trilogy</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>screen</t>
+  </si>
+  <si>
+    <t>breathtaking</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>inspire</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>reduce</t>
+  </si>
+  <si>
+    <t>lawyer</t>
+  </si>
+  <si>
+    <t>housing estate</t>
+  </si>
+  <si>
+    <t>leaflet</t>
+  </si>
+  <si>
+    <t>chase</t>
+  </si>
+  <si>
+    <t>ˈærəɡənt</t>
+  </si>
+  <si>
+    <t>высокомерный  
+ высокомерие  
+ высокомерно</t>
+  </si>
+  <si>
+    <t>believing that you are better or more important than other people</t>
+  </si>
+  <si>
+    <t>I found him arrogant and rude.</t>
+  </si>
+  <si>
+    <t>ɪmˈpʌlsɪv</t>
+  </si>
+  <si>
+    <t>импульсивный  
+ импульсивно</t>
+  </si>
+  <si>
+    <t>Impulsive people do things suddenly, without planning or thinking carefully, but because they want to.</t>
+  </si>
+  <si>
+    <t>ˈlændlaɪn</t>
+  </si>
+  <si>
+    <t>городской, стационарный телефон</t>
+  </si>
+  <si>
+    <t>a telephone that is not a mobile phone</t>
+  </si>
+  <si>
+    <t>tɔːn</t>
+  </si>
+  <si>
+    <t>прич. прош. вр. от гл. tear</t>
+  </si>
+  <si>
+    <t>past participle of tear</t>
+  </si>
+  <si>
+    <t>ˌwelˈbælənst</t>
+  </si>
+  <si>
+    <t>уравновешенный</t>
+  </si>
+  <si>
+    <t>B2 food that includes all the different types of food that the body needs to be healthy    сбалансированное питание/рациональная пища     
+ Well-balanced people are calm and have good judgment.</t>
+  </si>
+  <si>
+    <t>ˌəʊpənˈmaɪndɪd</t>
+  </si>
+  <si>
+    <t>широких взглядов, непредубежденный</t>
+  </si>
+  <si>
+    <t>willing to consider ideas and opinions that are new or different to your own</t>
+  </si>
+  <si>
+    <t>dɪsˈsætɪsfaɪd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">неудовлетворенный, недовольный </t>
+  </si>
+  <si>
+    <t>not pleased or happy with something</t>
+  </si>
+  <si>
+    <t>a dissatisfied customer 
+ Are you dissatisfied with our service?</t>
+  </si>
+  <si>
+    <t>ˈbreθˌteɪkɪŋ</t>
+  </si>
+  <si>
+    <t>поразительный, захватывающий  
+ поразительно, захватывающе</t>
+  </si>
+  <si>
+    <t>very beautiful or surprising</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breathtaking views </t>
+  </si>
+  <si>
+    <t>универмаг</t>
+  </si>
+  <si>
+    <t>a large shop divided into several different parts that sell different types of things</t>
+  </si>
+  <si>
+    <t>жилой микрорайон</t>
+  </si>
+  <si>
+    <t>an area with a large number of houses that were built at the same time</t>
+  </si>
+  <si>
+    <t>tend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ухаживать, заботиться </t>
+  </si>
+  <si>
+    <t>B2 to often do a particular thing or be likely to do a particular thing    иметь тенденцию, склонность делать что-либо   I tend to wear dark colours. July and August tend to be our busiest months.  
+ to look after someone or something</t>
+  </si>
+  <si>
+    <t>He spends most afternoons tending his vegetable garden.</t>
+  </si>
+  <si>
+    <t>ɪkˈspaɪər</t>
+  </si>
+  <si>
+    <t xml:space="preserve">истекать (о сроке, контракте) </t>
+  </si>
+  <si>
+    <t>If a legal document or agreement expires, you can no longer use it.</t>
+  </si>
+  <si>
+    <t>Your contract expired six months ago.</t>
+  </si>
+  <si>
+    <t>ˈtrɪlədʒi</t>
+  </si>
+  <si>
+    <t>трилогия</t>
+  </si>
+  <si>
+    <t>a series of three books, plays, etc with the same characters or subject</t>
+  </si>
+  <si>
+    <t>æmˈbɪʃəs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">целеустремленный  
+ грандиозный </t>
+  </si>
+  <si>
+    <t>wanting to be successful or powerful 
+ An ambitious plan will need a lot of work and will be difficult to achieve.</t>
+  </si>
+  <si>
+    <t>an ambitious young lawyer 
+ This is our most ambitious project so far.</t>
+  </si>
+  <si>
+    <t>ˈsaʊndtræk</t>
+  </si>
+  <si>
+    <t>звуковое сопровождение</t>
+  </si>
+  <si>
+    <t>the music used in a film</t>
+  </si>
+  <si>
+    <t>ˈpɪknɪk</t>
+  </si>
+  <si>
+    <t>пикник  
+ устраивать пикник</t>
+  </si>
+  <si>
+    <t>a meal that you make and take with you somewhere to eat outside</t>
+  </si>
+  <si>
+    <t>We're going to have a picnic down by the lake.</t>
+  </si>
+  <si>
+    <t>lɔɪəl</t>
+  </si>
+  <si>
+    <t>верный, преданный  
+ верно, преданно</t>
+  </si>
+  <si>
+    <t>always liking and supporting someone or something, sometimes when other people do not</t>
+  </si>
+  <si>
+    <t>a loyal supporter  
+ She's very loyal to her friends.</t>
+  </si>
+  <si>
+    <t>ˈrekən</t>
+  </si>
+  <si>
+    <t xml:space="preserve">считать, думать  
+ исчислять, оценивать </t>
+  </si>
+  <si>
+    <t>to think that something is probably true 
+ to guess that a particular number is correct</t>
+  </si>
+  <si>
+    <t>I reckon he likes her. 
+ [ + (that) ] 
+ He reckons that he earns more in a week than I do in a month. 
+ His fortune is reckoned at $5 million.</t>
+  </si>
+  <si>
+    <t>rɪˈdjuːs</t>
+  </si>
+  <si>
+    <t>сокращать, уменьшать, снижать  
+ восстанавливать, раскислять</t>
+  </si>
+  <si>
+    <t>to make something less 
+ to add one or more electrons to a substance or to remove oxygen from a substance</t>
+  </si>
+  <si>
+    <t>to reduce air pollution 
+ The number of employees was reduced from 500 to 300.</t>
+  </si>
+  <si>
+    <t>ˈliːflət</t>
+  </si>
+  <si>
+    <t xml:space="preserve">листовка, брошюра </t>
+  </si>
+  <si>
+    <t>a piece of folded paper or a small book that contains information</t>
+  </si>
+  <si>
+    <t>I picked up a useful leaflet on how to fill in tax forms.</t>
+  </si>
+  <si>
+    <t>ɪnˈkʌrɪdʒ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">поощрять, способствовать  
+ ободрять, вселять надежду  
+ поощрение, ободрение </t>
+  </si>
+  <si>
+    <t>to make someone more likely to do something, or make something more likely to happen 
+ to give someone confidence or hope</t>
+  </si>
+  <si>
+    <t>[ + to do sth ] 
+ My parents encouraged me to try new things. 
+ Cutting back plants will encourage growth. 
+ My parents encouraged me when things weren't going well at school. 
+ Children need lots of encouragement from their parents.</t>
+  </si>
+  <si>
+    <t>ˈledʒəbl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">разборчивый, четкий </t>
+  </si>
+  <si>
+    <t>If writing is legible, you can read it easily.</t>
+  </si>
+  <si>
+    <t>ˌɪnsɪˈkjʊər</t>
+  </si>
+  <si>
+    <t>неуверенный в себе  
+ ненадежный, негарантированный  
+ ненадежно, непрочно  
+ неуверенность, ненадежность</t>
+  </si>
+  <si>
+    <t>having no confidence in yourself and what you can do 
+ not safe or protected</t>
+  </si>
+  <si>
+    <t>a shy, insecure teenager 
+ Many of our staff are worried because their jobs are insecure.</t>
+  </si>
+  <si>
+    <t>ˌsuːpəˈstɪʃən</t>
+  </si>
+  <si>
+    <t>суеверие</t>
+  </si>
+  <si>
+    <t>the belief that particular actions or objects are lucky or unlucky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">инфаркт </t>
+  </si>
+  <si>
+    <t>a medical problem in which someone's heart suddenly stops working correctly, sometimes causing death</t>
+  </si>
+  <si>
+    <t>I think he's had a heart attack.</t>
+  </si>
+  <si>
+    <t>ˈhɔːsʃuː</t>
+  </si>
+  <si>
+    <t>подкова</t>
+  </si>
+  <si>
+    <t>a U-shaped piece of metal that is nailed to a horse's foot</t>
+  </si>
+  <si>
+    <t>ɪnˈspaɪər</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вдохновлять  
+ вселять, внушать  
+ вдохновлять 
+ вдохновляющий </t>
+  </si>
+  <si>
+    <t>to make someone feel that they want to do something and can do it 
+ to make someone have a particular feeling or reaction 
+ to give someone an idea for a book, play, painting, etc 
+ giving you new ideas and making you feel you want to do something</t>
+  </si>
+  <si>
+    <t>[ + to do sth ] 
+ A drama teacher at school had inspired Sam to become an actor. 
+ Robson's first task will be to inspire his team with some confidence. 
+ He inspires great loyalty in his staff. 
+ [ often passive ] 
+ The television drama was inspired by a true story. 
+ an inspiring teacher 
+ an inspiring book</t>
+  </si>
+  <si>
+    <t>часть экипажа самолета, занятая обслуживанием пассажиров</t>
+  </si>
+  <si>
+    <t>the people on an aircraft who take care of the passengers as their job</t>
+  </si>
+  <si>
+    <t>prəˈspektɪv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Prospective buyers, employers, parents, etc are not yet buyers, employers, parents, etc but are expected to be in the future.    потенциальные покупатели/работодатели/родители и т. д.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">подвергать преследованиям, изводить </t>
+  </si>
+  <si>
+    <t>to treat someone unfairly because you do not like or approve of them</t>
+  </si>
+  <si>
+    <t>Ben feels he has been victimized by his teacher.</t>
+  </si>
+  <si>
+    <t>ˌsædʒɪˈteəriəs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стрелец </t>
+  </si>
+  <si>
+    <t>the sign of the zodiac that relates to the period of 22 November - 22 December, or a person born during this period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">час пик </t>
+  </si>
+  <si>
+    <t>the time when a lot of people are travelling to or from work and so roads and trains are very busy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the morning/evening rush hour </t>
+  </si>
+  <si>
+    <t>dɪˈrektər</t>
+  </si>
+  <si>
+    <t xml:space="preserve">директор, руководитель  
+ режиссер </t>
+  </si>
+  <si>
+    <t>an important manager in an organization or company 
+ someone who tells the actors in a film or play what to do</t>
+  </si>
+  <si>
+    <t>Meet the new sales director. 
+ the famous film director, Alfred Hitchcock</t>
+  </si>
+  <si>
+    <t>ˌʌnfəˈɡetəbl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">незабываемый </t>
+  </si>
+  <si>
+    <t>Something that is unforgettable is so good, interesting, etc that you remember it for a long time.</t>
+  </si>
+  <si>
+    <t>Seeing Niagara Falls was an unforgettable experience.</t>
+  </si>
+  <si>
+    <t>ˈrɒtən</t>
+  </si>
+  <si>
+    <t>гнилой, тухлый  
+ отвратительный, дрянной</t>
+  </si>
+  <si>
+    <t>Rotten vegetable or animal substances are decaying. 
+ very bad</t>
+  </si>
+  <si>
+    <t>rotten eggs 
+ rotten weather</t>
+  </si>
+  <si>
+    <t>ˈlɔɪər</t>
+  </si>
+  <si>
+    <t xml:space="preserve">юрист </t>
+  </si>
+  <si>
+    <t>someone whose job is to understand the law and deal with legal situations</t>
+  </si>
+  <si>
+    <t>I want to see my lawyer before I say anything else.</t>
+  </si>
+  <si>
+    <t>ˈstʌbən</t>
+  </si>
+  <si>
+    <t>упрямый  
+ упрямо  
+ упрямство</t>
+  </si>
+  <si>
+    <t>determined not to change your ideas, plans, etc, although other people want you to</t>
+  </si>
+  <si>
+    <t>ɪˈliːɡəl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">незаконный  
+ незаконно </t>
+  </si>
+  <si>
+    <t>not allowed by law</t>
+  </si>
+  <si>
+    <t>illegal drugs/weapons  
+ [ + to do sth ] 
+ It is illegal to sell cigarettes to anyone under 16. 
+ an illegally parked car</t>
+  </si>
+  <si>
+    <t>изумительный, чудесный  
+ изумительно, чудесно</t>
+  </si>
+  <si>
+    <t>extremely good</t>
+  </si>
+  <si>
+    <t>What a marvellous idea!</t>
+  </si>
+  <si>
+    <t>pəˈzesɪv</t>
+  </si>
+  <si>
+    <t>собственнический, ревнивый  
+ притяжательный (в грамматике)</t>
+  </si>
+  <si>
+    <t>wanting someone to love and spend time with you and no one else 
+ In grammar, a possessive word or form of a word shows who or what something belongs to. For example the words 'mine' and 'yours' are possessive pronouns.</t>
+  </si>
+  <si>
+    <t>steɪl</t>
+  </si>
+  <si>
+    <t>черствый, несвежий  
+ утративший новизну, затасканный</t>
+  </si>
+  <si>
+    <t>old and not fresh 
+ boring or bored, and not producing or feeling excitement or enthusiasm like before</t>
+  </si>
+  <si>
+    <t>stale bread 
+ Cake goes stale quickly if it's not covered. 
+ I'd been too long in the same job and was getting stale.</t>
+  </si>
+  <si>
+    <t>ˌkɒntrəˈdɪkt</t>
+  </si>
+  <si>
+    <t>противоречить  
+ возражать</t>
+  </si>
+  <si>
+    <t>If two things that are said or written about something contradict each other, they are so different that they cannot both be true. 
+ to say that what someone else has just said is wrong</t>
+  </si>
+  <si>
+    <t>His account of the accident contradicts the official government report.</t>
+  </si>
+  <si>
+    <t>ləʊˈkeɪʃən</t>
+  </si>
+  <si>
+    <t xml:space="preserve">расположение, место </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a place or position 
+   If a film or television programme is made on location, it is made at a place suitable to the story.    на натуре (о съемках)    </t>
+  </si>
+  <si>
+    <t>They haven't yet decided on the location of the new store.</t>
+  </si>
+  <si>
+    <t>ˈæŋkʃəs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">волнующийся  
+ стремящийся  
+ беспокойно </t>
+  </si>
+  <si>
+    <t>worried and nervous 
+ wanting to do something or wanting something to happen</t>
+  </si>
+  <si>
+    <t>She's very anxious about her exams. 
+ [ + to do sth ] 
+ He's anxious to get home. 
+ [ + that ] 
+ I was anxious that no one else should know. 
+ We waited anxiously by the phone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">транспортная пробка </t>
+  </si>
+  <si>
+    <t>a line of cars, trucks, etc that are moving slowly or not moving at all</t>
+  </si>
+  <si>
+    <t>They got stuck in a traffic jam.</t>
+  </si>
+  <si>
+    <t>ˈsteɪbl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">постоянный, стабильный  
+ устойчивый  
+ спокойный, уравновешенный </t>
+  </si>
+  <si>
+    <t>not likely to change or end suddenly 
+ fixed or safe and not likely to move 
+ mentally calm and not easily upset</t>
+  </si>
+  <si>
+    <t>a stable relationship 
+ The doctor said his condition was stable. 
+ Be careful! That chair isn't very stable.</t>
+  </si>
+  <si>
+    <t>əˈsɜːtɪv</t>
+  </si>
+  <si>
+    <t>уверенный в себе  
+ уверенно  
+ самоуверенность</t>
+  </si>
+  <si>
+    <t>behaving or speaking in a strong, confident way</t>
+  </si>
+  <si>
+    <t>You need to be much more assertive.</t>
+  </si>
+  <si>
+    <t>ˈkrɪtɪkəl</t>
+  </si>
+  <si>
+    <t>критический  
+ решающий, переломный  
+ критический, опасный  
+ критический, оценивающий  
+ критически</t>
+  </si>
+  <si>
+    <t>saying that someone or something is bad or wrong 
+ very important for the way things will happen in the future 
+ extremely serious or dangerous 
+ giving judgments and opinions on books, plays, films, etc</t>
+  </si>
+  <si>
+    <t>a critical report 
+ He is very critical of the way I work. 
+ a critical decision 
+ The doctors said her condition was critical and she might not survive. 
+ a critical study of Tennyson's work</t>
+  </si>
+  <si>
+    <t>ˈsækrɪfaɪs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">жертва  
+ жертва, жертвоприношение </t>
+  </si>
+  <si>
+    <t>something valuable that you give up in order to achieve something, or the act of giving it up 
+ something offered to a god in a religious ceremony, especially an animal that is killed, or the act of offering it</t>
+  </si>
+  <si>
+    <t>Sometimes you have to make sacrifices to succeed.</t>
+  </si>
+  <si>
+    <t>ˈkærəktər</t>
+  </si>
+  <si>
+    <t xml:space="preserve">характер  
+ персонаж  
+ характерная особенность  
+ тип, личность  
+ оригинал, чудак  
+ буква, знак, цифра, иероглиф </t>
+  </si>
+  <si>
+    <t>the combination of qualities and personality that makes one person or thing different from others 
+ a person in a book, film, etc 
+ qualities that are interesting or unusual 
+ a particular kind of person 
+ an interesting or funny person whose behaviour is different from most people's 
+ a letter, sign, or number that you use when you are writing or printing</t>
+  </si>
+  <si>
+    <t>It's not in her character to be jealous (= she would not usually be jealous). 
+ It would be very out of character (= not typical) of her to lie. 
+ The character of the village has changed since the road was built. 
+ a cartoon character 
+ a hotel of character 
+ an unpleasant character 
+ Your granny's a real character. 
+ Chinese characters</t>
+  </si>
+  <si>
+    <t>kɔːt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">суд  
+ корт, площадка  
+ двор (королевский) </t>
+  </si>
+  <si>
+    <t>the place where a judge decides whether someone is guilty of a crime 
+   the judge and group of people at a trial who decide whether someone is guilty of a crime    суд     
+ an area for playing particular sports 
+ the official home of a king or queen and the people who live with them</t>
+  </si>
+  <si>
+    <t>The suspect appeared in court charged with robbery. 
+ If they don't pay you can take them to court (= make them be judged in court). 
+ a tennis/basketball court</t>
+  </si>
+  <si>
+    <t>ˈmɑːvəl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">чудо </t>
+  </si>
+  <si>
+    <t>something really surprising, exciting, or good</t>
+  </si>
+  <si>
+    <t>a marvel of modern technology</t>
+  </si>
+  <si>
+    <t>ˈtʃæptər</t>
+  </si>
+  <si>
+    <t>глава  
+ страница истории</t>
+  </si>
+  <si>
+    <t>one of the parts that a book is divided into 
+ a period of time when something happens in history or in someone's life</t>
+  </si>
+  <si>
+    <t>an interesting chapter in Spanish history</t>
+  </si>
+  <si>
+    <t>ˈsiːnəri</t>
+  </si>
+  <si>
+    <t>вид, пейзаж  
+ декорации</t>
+  </si>
+  <si>
+    <t>the attractive, natural things that you see in the countryside 
+ the large pictures of buildings, countryside, etc used on a theatre stage</t>
+  </si>
+  <si>
+    <t>The Grand Canyon is famous for its spectacular scenery.</t>
+  </si>
+  <si>
+    <t>plɒt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сюжет  
+ заговор  
+ участок земли </t>
+  </si>
+  <si>
+    <t>the things that happen in a story 
+ a plan to do something bad 
+ a piece of land, often for growing food or for building on</t>
+  </si>
+  <si>
+    <t>I don't like movies with complicated plots. 
+ [ + to do sth ] 
+ a plot to blow up the embassy 
+ a building plot</t>
+  </si>
+  <si>
+    <t>tʃeɪs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гнаться, преследовать  
+ гоняться, пытаться заполучить </t>
+  </si>
+  <si>
+    <t>to run after someone or something in order to catch them 
+   to run after a person or animal to make them leave a place    отгонять, прогонять кого-либо/что-либо   I chased the cat away.  
+ to try very hard to get something</t>
+  </si>
+  <si>
+    <t>The dog was chasing a rabbit. 
+ There are hundreds of graduates chasing very few jobs.</t>
+  </si>
+  <si>
+    <t>muːv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">переезжать  
+ двигать(ся), передвигать(ся)  
+ действовать, принимать меры  
+ переносить (срок), менять порядок  
+ трогать, волновать </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a person or an organization moves, they go to a different place to live or work. 
+ to change place or position, or to make something change place or position 
+   to make progress with something that you have planned to do    продвигаться в каком-либо деле   The department is moving ahead with changes to its teaching programme.  
+ to take action 
+ to change the time or order of something 
+ to make someone have strong feelings of sadness or sympathy 
+ B1 to leave your home in order to live in a new one    переезжать в другой дом, в новую квартиру    </t>
+  </si>
+  <si>
+    <t>Eventually, he moved to Germany. 
+ She's moving into a new apartment. 
+ Our children have all moved away. 
+ We moved the chairs to another room. 
+ Someone was moving around upstairs. 
+ [ + to do sth ] 
+ The company moved swiftly to find new products. 
+ We need to move the meeting back a few days. 
+ [ often passive ] 
+ I was deeply moved by his speech. 
+ Many people were moved to tears (= were so sad they cried).</t>
+  </si>
+  <si>
+    <t>skriːn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">экран  
+ экран  
+ кино  
+ сетка (от насекомых)  
+ перегородка </t>
+  </si>
+  <si>
+    <t>the part of a television or computer that shows images or writing 
+ A2 using a computer    на компьютере/с компьютером   Do you work on screen? The text can be displayed and edited on screen.  
+ a large, flat surface where a film or an image is shown 
+ cinema films 
+ a wire net that covers a window or door and is used to stop insects coming in 
+ a vertical structure that is used to separate one area from another</t>
+  </si>
+  <si>
+    <t>I spend most of my day working in front of a computer screen. 
+ an actor of stage and screen (= theatre and films)  
+ She first appeared on screen in 1965.</t>
+  </si>
+  <si>
+    <t>gossip</t>
+  </si>
+  <si>
+    <t>frivolous</t>
+  </si>
+  <si>
+    <t>hitchhike</t>
+  </si>
+  <si>
+    <t>troublesome</t>
+  </si>
+  <si>
+    <t>marble</t>
+  </si>
+  <si>
+    <t>surgery</t>
+  </si>
+  <si>
+    <t>acquaintance</t>
+  </si>
+  <si>
+    <t>penfriend</t>
+  </si>
+  <si>
+    <t>ceiling</t>
+  </si>
+  <si>
+    <t>estate agent</t>
+  </si>
+  <si>
+    <t>picturesque</t>
+  </si>
+  <si>
+    <t>coast</t>
+  </si>
+  <si>
+    <t>affair</t>
+  </si>
+  <si>
+    <t>mermaid</t>
+  </si>
+  <si>
+    <t>independent</t>
+  </si>
+  <si>
+    <t>spill</t>
+  </si>
+  <si>
+    <t>retire</t>
+  </si>
+  <si>
+    <t>urgent</t>
+  </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">экзамен, контрольная работа 
-анализ, обследование 
-испытание, проверка 
-испытание</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a set of questions to measure someone's knowledge or ability
-a short medical examination of part of your body
-something that you do to discover if something is safe, works correctly, etc
-a situation that shows how good something is</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a driving test
-You have to take a test.
-Only two students in the class failed the test.
-Did you pass the biology test?
-an eye test
-a pregnancy test
-a safety test
-This will be a real test of his ability.</t>
+    <t>əˈfeər</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дело, ситуация  
+ роман, связь </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a situation or set of related events, especially bad ones 
+ a sexual relationship between two people when one or both of them is married to someone else 
+   If something is your affair, it is private and you do not want anyone else to be involved or know about it.    быть чьим-либо личным делом   See also love affair </t>
+  </si>
+  <si>
+    <t>The government's handling of the affair has been widely criticized. 
+ He's been having an affair with a woman at work.</t>
+  </si>
+  <si>
+    <t>ˈsiːlɪŋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">потолок  
+ предел </t>
+  </si>
+  <si>
+    <t>the surface of a room that you can see when you look above you 
+ a limit on the amount that can be paid for something</t>
+  </si>
+  <si>
+    <t>They have set a ceiling on pay rises.</t>
+  </si>
+  <si>
+    <t>ˈhɪtʃhaɪk</t>
+  </si>
+  <si>
+    <t>ездить автостопом  
+ путешествующий автостопом</t>
+  </si>
+  <si>
+    <t>to get free rides in people's vehicles by standing next to the road and waiting for someone to pick you up</t>
+  </si>
+  <si>
+    <t>ˈɜːdʒənt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">срочный  
+ срочно </t>
+  </si>
+  <si>
+    <t>very important and needing you to take action immediately</t>
+  </si>
+  <si>
+    <t>an urgent message 
+ The refugees were in urgent need of food and water. 
+ I need to speak to you urgently.</t>
+  </si>
+  <si>
+    <t>rɪˈtaɪər</t>
+  </si>
+  <si>
+    <t xml:space="preserve">уходить на пенсию  
+ удаляться </t>
+  </si>
+  <si>
+    <t>to leave your job and stop working, usually because you are old 
+ to go to another place where you can be alone or more private</t>
+  </si>
+  <si>
+    <t>She retired from the company in 2010. 
+ After dinner, he retired to his bedroom.</t>
+  </si>
+  <si>
+    <t>spɪl</t>
+  </si>
+  <si>
+    <t>проливать  
+ что-либо пролитое</t>
+  </si>
+  <si>
+    <t>to pour liquid somewhere without intending to</t>
+  </si>
+  <si>
+    <t>Someone at the party spilled red wine on the carpet. 
+ an oil spill</t>
+  </si>
+  <si>
+    <t>ˈtrʌblsəm</t>
+  </si>
+  <si>
+    <t>причиняющий беспокойство</t>
+  </si>
+  <si>
+    <t>causing a lot of problems, especially over a long period of time</t>
+  </si>
+  <si>
+    <t>a troublesome knee injury</t>
+  </si>
+  <si>
+    <t>əˈkweɪntəns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">знакомый </t>
+  </si>
+  <si>
+    <t>someone who you know but do not know well</t>
+  </si>
+  <si>
+    <t>He's just a business acquaintance.</t>
+  </si>
+  <si>
+    <t>ˈsɜːdʒəri</t>
+  </si>
+  <si>
+    <t>хирургическая операция  
+ кабинет врача, поликлиника</t>
+  </si>
+  <si>
+    <t>the activity in which a doctor cuts people's bodies open and repairs or removes something 
+ a place where doctors or other medical workers treat people</t>
+  </si>
+  <si>
+    <t>to have surgery  
+ heart/knee surgery</t>
+  </si>
+  <si>
+    <t>ˈfrɪvələs</t>
+  </si>
+  <si>
+    <t>легкомысленный  
+ легкомысленно</t>
+  </si>
+  <si>
+    <t>silly and not serious</t>
+  </si>
+  <si>
+    <t>ˈmɜːmeɪd</t>
+  </si>
+  <si>
+    <t>русалка</t>
+  </si>
+  <si>
+    <t>an imaginary creature that lives in the sea and has the upper body of a woman and the tail of a fish</t>
+  </si>
+  <si>
+    <t>ˈmɑːbl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мрамор </t>
+  </si>
+  <si>
+    <t>hard, smooth stone that is often used for decoration</t>
+  </si>
+  <si>
+    <t>green/pink marble 
+ a marble statue</t>
+  </si>
+  <si>
+    <t>ˌpɪktʃərˈesk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">живописный </t>
+  </si>
+  <si>
+    <t>A picturesque place is attractive to look at.</t>
+  </si>
+  <si>
+    <t>a picturesque cottage on the edge of the Yorkshire Moors</t>
+  </si>
+  <si>
+    <t>агент по продаже недвижимости</t>
+  </si>
+  <si>
+    <t>someone who sells buildings and land as their job</t>
+  </si>
+  <si>
+    <t>kəʊst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">побережье </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the land beside the sea 
+   from one side of a country to the other    по всей стране    </t>
+  </si>
+  <si>
+    <t>The island lies off the North African coast (= in the sea near North Africa). 
+ They live on the east coast of Scotland.</t>
+  </si>
+  <si>
+    <t>ˈɡɒsɪp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сплетня  
+ сплетник, сплетница </t>
+  </si>
+  <si>
+    <t>conversation or reports about other people's private lives that might or might not be true 
+ someone who likes to talk about other people's private lives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an interesting piece of gossip </t>
+  </si>
+  <si>
+    <t>ˌɪndɪˈpendənt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">независимый  
+ самостоятельный  
+ независимый, объективный  
+ независимо, самостоятельно </t>
+  </si>
+  <si>
+    <t>not controlled or ruled by anyone else 
+ not wanting or needing anyone else to help you or do things for you 
+ not influenced by anyone or anything else</t>
+  </si>
+  <si>
+    <t>an independent state/company 
+ The group is independent of any political party. 
+ She's a proud, independent woman. 
+ an independent expert/study 
+ to operate independently</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts/>
-  <fonts x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,8 +1653,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills>
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,7 +1669,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -91,8 +1681,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs>
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -373,33 +1976,2009 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="4" max="6" width="28.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>247</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>407</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>329</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>296</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>289</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>260</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
+        <v>306</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>310</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>333</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
+        <v>293</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>411</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>232</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>353</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>357</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" t="s">
+        <v>415</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" t="s">
+        <v>240</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" t="s">
+        <v>217</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" t="s">
+        <v>210</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
+        <v>251</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" t="s">
+        <v>419</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>423</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" t="s">
+        <v>427</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" t="s">
+        <v>181</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" t="s">
+        <v>431</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" t="s">
+        <v>285</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" t="s">
+        <v>236</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" t="s">
+        <v>434</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B64" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" t="s">
+        <v>437</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" t="s">
+        <v>213</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" t="s">
+        <v>220</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" t="s">
+        <v>318</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" t="s">
+        <v>175</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" t="s">
+        <v>441</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" t="s">
+        <v>257</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" t="s">
+        <v>303</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" t="s">
+        <v>314</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" t="s">
+        <v>447</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B79" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" t="s">
+        <v>451</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" t="s">
+        <v>341</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B81" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" t="s">
+        <v>271</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B83" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" t="s">
+        <v>202</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" t="s">
+        <v>102</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" t="s">
+        <v>337</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B86" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" t="s">
+        <v>455</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B88" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" t="s">
+        <v>206</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" t="s">
+        <v>109</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B90" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" t="s">
+        <v>349</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B91" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" t="s">
+        <v>337</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" t="s">
+        <v>105</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B93" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" t="s">
+        <v>345</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B94" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" t="s">
+        <v>361</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B95" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" t="s">
+        <v>325</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B96" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" t="s">
+        <v>361</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B97" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97" t="s">
+        <v>365</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" t="s">
+        <v>314</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="345" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B99" t="s">
+        <v>71</v>
+      </c>
+      <c r="C99" t="s">
+        <v>369</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B100" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" t="s">
+        <v>373</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dictionary.xlsx
+++ b/Dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="10320"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="10320" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>GDP</t>
   </si>
@@ -245,11 +245,6 @@
   <si>
     <t>тщеславный, самовлюбленный  
  тщетно</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  without any success    тщетно   I tried in vain to start a conversation.  
-   an attempt/effort, etc that does not have the result you want    тщетная попытка/тщетное усилие/тщетная надежда     
- too interested in your own appearance and thinking you are very attractive</t>
   </si>
   <si>
     <t>verb</t>
@@ -393,12 +388,6 @@
  затрагивать (вопрос, проблему) </t>
   </si>
   <si>
-    <t xml:space="preserve">to involve someone or be important to them 
- to worry or upset someone 
- If a story, film, etc concerns a particular subject, it is about that subject. 
-   to become involved with doing something    заниматься, беспокоиться   You needn't concern yourself with the travel arrangements. </t>
-  </si>
-  <si>
     <t>Environmental issues concern us all. 
  What really concerns me is her lack of experience.</t>
   </si>
@@ -625,10 +614,6 @@
     <t>уравновешенный</t>
   </si>
   <si>
-    <t>B2 food that includes all the different types of food that the body needs to be healthy    сбалансированное питание/рациональная пища     
- Well-balanced people are calm and have good judgment.</t>
-  </si>
-  <si>
     <t>ˌəʊpənˈmaɪndɪd</t>
   </si>
   <si>
@@ -680,10 +665,6 @@
   </si>
   <si>
     <t xml:space="preserve">ухаживать, заботиться </t>
-  </si>
-  <si>
-    <t>B2 to often do a particular thing or be likely to do a particular thing    иметь тенденцию, склонность делать что-либо   I tend to wear dark colours. July and August tend to be our busiest months.  
- to look after someone or something</t>
   </si>
   <si>
     <t>He spends most afternoons tending his vegetable garden.</t>
@@ -911,9 +892,6 @@
     <t>prəˈspektɪv</t>
   </si>
   <si>
-    <t xml:space="preserve">  Prospective buyers, employers, parents, etc are not yet buyers, employers, parents, etc but are expected to be in the future.    потенциальные покупатели/работодатели/родители и т. д.   </t>
-  </si>
-  <si>
     <t xml:space="preserve">подвергать преследованиям, изводить </t>
   </si>
   <si>
@@ -1077,10 +1055,6 @@
   </si>
   <si>
     <t xml:space="preserve">расположение, место </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a place or position 
-   If a film or television programme is made on location, it is made at a place suitable to the story.    на натуре (о съемках)    </t>
   </si>
   <si>
     <t>They haven't yet decided on the location of the new store.</t>
@@ -1221,12 +1195,6 @@
  двор (королевский) </t>
   </si>
   <si>
-    <t>the place where a judge decides whether someone is guilty of a crime 
-   the judge and group of people at a trial who decide whether someone is guilty of a crime    суд     
- an area for playing particular sports 
- the official home of a king or queen and the people who live with them</t>
-  </si>
-  <si>
     <t>The suspect appeared in court charged with robbery. 
  If they don't pay you can take them to court (= make them be judged in court). 
  a tennis/basketball court</t>
@@ -1296,11 +1264,6 @@
   <si>
     <t xml:space="preserve">гнаться, преследовать  
  гоняться, пытаться заполучить </t>
-  </si>
-  <si>
-    <t>to run after someone or something in order to catch them 
-   to run after a person or animal to make them leave a place    отгонять, прогонять кого-либо/что-либо   I chased the cat away.  
- to try very hard to get something</t>
   </si>
   <si>
     <t>The dog was chasing a rabbit. 
@@ -1315,15 +1278,6 @@
  действовать, принимать меры  
  переносить (срок), менять порядок  
  трогать, волновать </t>
-  </si>
-  <si>
-    <t xml:space="preserve">If a person or an organization moves, they go to a different place to live or work. 
- to change place or position, or to make something change place or position 
-   to make progress with something that you have planned to do    продвигаться в каком-либо деле   The department is moving ahead with changes to its teaching programme.  
- to take action 
- to change the time or order of something 
- to make someone have strong feelings of sadness or sympathy 
- B1 to leave your home in order to live in a new one    переезжать в другой дом, в новую квартиру    </t>
   </si>
   <si>
     <t>Eventually, he moved to Germany. 
@@ -1349,14 +1303,6 @@
  перегородка </t>
   </si>
   <si>
-    <t>the part of a television or computer that shows images or writing 
- A2 using a computer    на компьютере/с компьютером   Do you work on screen? The text can be displayed and edited on screen.  
- a large, flat surface where a film or an image is shown 
- cinema films 
- a wire net that covers a window or door and is used to stop insects coming in 
- a vertical structure that is used to separate one area from another</t>
-  </si>
-  <si>
     <t>I spend most of my day working in front of a computer screen. 
  an actor of stage and screen (= theatre and films)  
  She first appeared on screen in 1965.</t>
@@ -1416,19 +1362,11 @@
     <t>urgent</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>əˈfeər</t>
   </si>
   <si>
     <t xml:space="preserve">дело, ситуация  
  роман, связь </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a situation or set of related events, especially bad ones 
- a sexual relationship between two people when one or both of them is married to someone else 
-   If something is your affair, it is private and you do not want anyone else to be involved or know about it.    быть чьим-либо личным делом   See also love affair </t>
   </si>
   <si>
     <t>The government's handling of the affair has been widely criticized. 
@@ -1596,10 +1534,6 @@
   </si>
   <si>
     <t xml:space="preserve">побережье </t>
-  </si>
-  <si>
-    <t xml:space="preserve">the land beside the sea 
-   from one side of a country to the other    по всей стране    </t>
   </si>
   <si>
     <t>The island lies off the North African coast (= in the sea near North Africa). 
@@ -1640,12 +1574,69 @@
  an independent expert/study 
  to operate independently</t>
   </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Well-balanced people are calm and have good judgment.</t>
+  </si>
+  <si>
+    <t>to look after someone or something</t>
+  </si>
+  <si>
+    <t>too interested in your own appearance and thinking you are very attractive</t>
+  </si>
+  <si>
+    <t>a situation or set of related events, especially bad ones 
+ a sexual relationship between two people when one or both of them is married to someone else</t>
+  </si>
+  <si>
+    <t>the land beside the sea</t>
+  </si>
+  <si>
+    <t>a place or position</t>
+  </si>
+  <si>
+    <t>to run after someone or something in order to catch them 
+ to try very hard to get something</t>
+  </si>
+  <si>
+    <t>to involve someone or be important to them 
+ to worry or upset someone 
+ If a story, film, etc concerns a particular subject, it is about that subject.</t>
+  </si>
+  <si>
+    <t>the place where a judge decides whether someone is guilty of a crime 
+ an area for playing particular sports 
+ the official home of a king or queen and the people who live with them</t>
+  </si>
+  <si>
+    <t>the part of a television or computer that shows images or writing 
+ a large, flat surface where a film or an image is shown 
+ cinema films 
+ a wire net that covers a window or door and is used to stop insects coming in 
+ a vertical structure that is used to separate one area from another</t>
+  </si>
+  <si>
+    <t>If a person or an organization moves, they go to a different place to live or work. 
+ to change place or position, or to make something change place or position 
+ to take action 
+ to change the time or order of something 
+ to make someone have strong feelings of sadness or sympathy</t>
+  </si>
+  <si>
+    <t>qweqwegqweg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts/>
+  <fonts x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1661,7 +1652,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills>
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1669,7 +1660,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders>
     <border>
       <left/>
       <right/>
@@ -1681,7 +1672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
@@ -1976,10 +1967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G100"/>
+  <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1990,1991 +1981,2023 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>117</v>
+      <c r="A1" t="s" s="4">
+        <v>164</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="E1" t="s" s="3">
+        <v>230</v>
+      </c>
+      <c r="F1" t="s" s="3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s" s="4">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="E2" t="s" s="3">
+        <v>459</v>
+      </c>
+      <c r="F2" t="s" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s" s="4">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D3" t="s" s="3">
         <v>188</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E3" t="s" s="3">
         <v>189</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F3" t="s" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" t="s" s="4">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" t="s" s="3">
+        <v>177</v>
+      </c>
+      <c r="E4" t="s" s="3">
+        <v>178</v>
+      </c>
+      <c r="F4" t="s" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s" s="3">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s" s="3">
+        <v>95</v>
+      </c>
+      <c r="F5" t="s" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s" s="4">
+        <v>384</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D6" t="s" s="3">
+        <v>396</v>
+      </c>
+      <c r="E6" t="s" s="3">
+        <v>397</v>
+      </c>
+      <c r="F6" t="s" s="3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s" s="4">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>327</v>
+      </c>
+      <c r="D7" t="s" s="3">
+        <v>328</v>
+      </c>
+      <c r="E7" t="s" s="3">
+        <v>329</v>
+      </c>
+      <c r="F7" t="s" s="3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" t="s" s="4">
+        <v>146</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D8" t="s" s="3">
+        <v>281</v>
+      </c>
+      <c r="E8" t="s" s="3">
+        <v>282</v>
+      </c>
+      <c r="F8" t="s" s="3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" t="s" s="4">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" t="s" s="3">
+        <v>210</v>
+      </c>
+      <c r="E9" t="s" s="3">
+        <v>211</v>
+      </c>
+      <c r="F9" t="s" s="3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" t="s" s="4">
+        <v>379</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
         <v>385</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D11" t="s" s="3">
+        <v>386</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>450</v>
+      </c>
+      <c r="F11" t="s" s="3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A12" t="s" s="4">
+        <v>153</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>400</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="C12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D12" t="s" s="3">
+        <v>351</v>
+      </c>
+      <c r="E12" t="s" s="3">
+        <v>352</v>
+      </c>
+      <c r="F12" t="s" s="3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" t="s" s="4">
+        <v>157</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" t="s" s="3">
+        <v>273</v>
+      </c>
+      <c r="E13" t="s" s="3">
+        <v>274</v>
+      </c>
+      <c r="F13" t="s" s="3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" t="s" s="4">
+        <v>382</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D14" t="s" s="3">
+        <v>404</v>
+      </c>
+      <c r="E14" t="s" s="3">
+        <v>405</v>
+      </c>
+      <c r="F14" t="s" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" t="s" s="4">
+        <v>370</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>407</v>
+      </c>
+      <c r="D15" t="s" s="3">
+        <v>408</v>
+      </c>
+      <c r="E15" t="s" s="3">
+        <v>409</v>
+      </c>
+      <c r="F15" t="s" s="3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A16" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s" s="4">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s" s="3">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s" s="3">
+        <v>85</v>
+      </c>
+      <c r="F17" t="s" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s" s="4">
+        <v>120</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>288</v>
+      </c>
+      <c r="D18" t="s" s="3">
+        <v>289</v>
+      </c>
+      <c r="E18" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="F18" t="s" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
         <v>71</v>
       </c>
-      <c r="C5" t="s">
-        <v>404</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="D19" t="s" s="3">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s" s="3">
+        <v>73</v>
+      </c>
+      <c r="F19" t="s" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" t="s" s="4">
+        <v>138</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>247</v>
+      </c>
+      <c r="D20" t="s" s="3">
+        <v>248</v>
+      </c>
+      <c r="E20" t="s" s="3">
+        <v>249</v>
+      </c>
+      <c r="F20" t="s" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="F21" t="s" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" t="s" s="4">
+        <v>162</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>256</v>
+      </c>
+      <c r="D22" t="s" s="3">
+        <v>257</v>
+      </c>
+      <c r="E22" t="s" s="3">
+        <v>258</v>
+      </c>
+      <c r="F22" t="s" s="3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s" s="4">
+        <v>165</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>284</v>
+      </c>
+      <c r="D23" t="s" s="3">
+        <v>285</v>
+      </c>
+      <c r="E23" t="s" s="3">
+        <v>286</v>
+      </c>
+      <c r="F23" t="s" s="3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" t="s" s="4">
+        <v>135</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>346</v>
+      </c>
+      <c r="D24" t="s" s="3">
+        <v>347</v>
+      </c>
+      <c r="E24" t="s" s="3">
+        <v>348</v>
+      </c>
+      <c r="F24" t="s" s="3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" t="s" s="4">
         <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>266</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>224</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" t="s">
-        <v>240</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>247</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>244</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" t="s">
-        <v>228</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>407</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>329</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>296</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>289</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="F25" t="s" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s" s="4">
+        <v>199</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" t="s" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" t="s" s="3">
+        <v>448</v>
+      </c>
+      <c r="F26" t="s" s="3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" t="s" s="3">
+        <v>185</v>
+      </c>
+      <c r="E27" t="s" s="3">
+        <v>186</v>
+      </c>
+      <c r="F27" t="s" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" t="s" s="4">
+        <v>112</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" t="s" s="3">
+        <v>183</v>
+      </c>
+      <c r="E28" t="s" s="3">
+        <v>447</v>
+      </c>
+      <c r="F28" t="s" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" t="s" s="4">
+        <v>368</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>419</v>
+      </c>
+      <c r="D29" t="s" s="3">
+        <v>420</v>
+      </c>
+      <c r="E29" t="s" s="3">
+        <v>421</v>
+      </c>
+      <c r="F29" t="s" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s" s="3">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s" s="3">
+        <v>47</v>
+      </c>
+      <c r="F30" t="s" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" t="s" s="4">
+        <v>134</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
         <v>291</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="D31" t="s" s="3">
         <v>292</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="E31" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="F31" t="s" s="3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" t="s" s="4">
+        <v>372</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>415</v>
+      </c>
+      <c r="D32" t="s" s="3">
+        <v>416</v>
+      </c>
+      <c r="E32" t="s" s="3">
+        <v>417</v>
+      </c>
+      <c r="F32" t="s" s="3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D33" t="s" s="3">
         <v>34</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E33" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F33" t="s" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" t="s">
-        <v>260</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="F29" s="3" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s" s="4">
+        <v>132</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>459</v>
+      </c>
+      <c r="D34" t="s" s="3">
         <v>263</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" t="s">
-        <v>306</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" t="s">
-        <v>310</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" t="s">
-        <v>333</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" t="s">
-        <v>293</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" t="s" s="3">
+        <v>264</v>
+      </c>
+      <c r="F34" t="s" s="3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" t="s" s="4">
+        <v>380</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>422</v>
+      </c>
+      <c r="D35" t="s" s="3">
+        <v>423</v>
+      </c>
+      <c r="E35" t="s" s="3">
+        <v>424</v>
+      </c>
+      <c r="F35" t="s" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="E36" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" t="s" s="4">
+        <v>375</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>388</v>
+      </c>
+      <c r="D37" t="s" s="3">
+        <v>389</v>
+      </c>
+      <c r="E37" t="s" s="3">
+        <v>390</v>
+      </c>
+      <c r="F37" t="s" s="3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" t="s" s="4">
+        <v>151</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s">
+        <v>459</v>
+      </c>
+      <c r="D38" t="s" s="3">
         <v>295</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="B35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" t="s">
-        <v>411</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" t="s">
-        <v>232</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>137</v>
+      <c r="E38" t="s" s="3">
+        <v>296</v>
+      </c>
+      <c r="F38" t="s" s="3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" t="s" s="4">
+        <v>136</v>
       </c>
       <c r="B39" t="s">
         <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>353</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>21</v>
+        <v>216</v>
+      </c>
+      <c r="D39" t="s" s="3">
+        <v>217</v>
+      </c>
+      <c r="E39" t="s" s="3">
+        <v>218</v>
+      </c>
+      <c r="F39" t="s" s="3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" t="s" s="4">
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>155</v>
+        <v>90</v>
+      </c>
+      <c r="D40" t="s" s="3">
+        <v>91</v>
+      </c>
+      <c r="E40" t="s" s="3">
+        <v>92</v>
+      </c>
+      <c r="F40" t="s" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" t="s" s="4">
+        <v>373</v>
       </c>
       <c r="B41" t="s">
         <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>357</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>4</v>
+        <v>411</v>
+      </c>
+      <c r="D41" t="s" s="3">
+        <v>412</v>
+      </c>
+      <c r="E41" t="s" s="3">
+        <v>413</v>
+      </c>
+      <c r="F41" t="s" s="3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" t="s" s="4">
+        <v>2</v>
       </c>
       <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" t="s" s="3">
+        <v>87</v>
+      </c>
+      <c r="E42" t="s" s="3">
+        <v>88</v>
+      </c>
+      <c r="F42" t="s" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" t="s" s="4">
+        <v>145</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
+        <v>301</v>
+      </c>
+      <c r="D43" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="E43" t="s" s="3">
+        <v>303</v>
+      </c>
+      <c r="F43" t="s" s="3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" t="s" s="4">
+        <v>154</v>
+      </c>
+      <c r="B44" t="s">
         <v>28</v>
       </c>
-      <c r="C42" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="C44" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" t="s" s="3">
+        <v>214</v>
+      </c>
+      <c r="E44" t="s" s="3">
+        <v>215</v>
+      </c>
+      <c r="F44" t="s" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="E45" t="s" s="3">
+        <v>62</v>
+      </c>
+      <c r="F45" t="s" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" t="s" s="4">
+        <v>121</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" t="s" s="3">
+        <v>170</v>
+      </c>
+      <c r="E46" t="s" s="3">
+        <v>171</v>
+      </c>
+      <c r="F46" t="s" s="3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" t="s" s="4">
+        <v>369</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" t="s">
         <v>392</v>
       </c>
-      <c r="B43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" t="s">
-        <v>415</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="D47" t="s" s="3">
+        <v>393</v>
+      </c>
+      <c r="E47" t="s" s="3">
+        <v>394</v>
+      </c>
+      <c r="F47" t="s" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="E48" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="F48" t="s" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s" s="4">
+        <v>167</v>
+      </c>
+      <c r="B49" t="s">
         <v>28</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C49" t="s">
+        <v>232</v>
+      </c>
+      <c r="D49" t="s" s="3">
+        <v>233</v>
+      </c>
+      <c r="E49" t="s" s="3">
+        <v>234</v>
+      </c>
+      <c r="F49" t="s" s="3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A50" t="s" s="4">
+        <v>137</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" t="s">
+        <v>312</v>
+      </c>
+      <c r="D50" t="s" s="3">
+        <v>313</v>
+      </c>
+      <c r="E50" t="s" s="3">
+        <v>314</v>
+      </c>
+      <c r="F50" t="s" s="3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" t="s" s="3">
+        <v>80</v>
+      </c>
+      <c r="E51" t="s" s="3">
+        <v>81</v>
+      </c>
+      <c r="F51" t="s" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" t="s" s="4">
+        <v>130</v>
+      </c>
+      <c r="B52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" t="s">
+        <v>224</v>
+      </c>
+      <c r="D52" t="s" s="3">
+        <v>225</v>
+      </c>
+      <c r="E52" t="s" s="3">
+        <v>226</v>
+      </c>
+      <c r="F52" t="s" s="3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" t="s" s="4">
+        <v>122</v>
+      </c>
+      <c r="B53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" t="s">
+        <v>323</v>
+      </c>
+      <c r="D53" t="s" s="3">
+        <v>324</v>
+      </c>
+      <c r="E53" t="s" s="3">
+        <v>325</v>
+      </c>
+      <c r="F53" t="s" s="3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" t="s" s="4">
+        <v>141</v>
+      </c>
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" t="s">
+        <v>253</v>
+      </c>
+      <c r="D54" t="s" s="3">
+        <v>254</v>
+      </c>
+      <c r="E54" t="s" s="3">
+        <v>255</v>
+      </c>
+      <c r="F54" t="s" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" t="s" s="3">
+        <v>57</v>
+      </c>
+      <c r="E55" t="s" s="3">
+        <v>58</v>
+      </c>
+      <c r="F55" t="s" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A56" t="s" s="4">
+        <v>377</v>
+      </c>
+      <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D56" t="s" s="3">
+        <v>430</v>
+      </c>
+      <c r="E56" t="s" s="3">
+        <v>431</v>
+      </c>
+      <c r="F56" t="s" s="3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" t="s" s="4">
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" t="s">
+        <v>173</v>
+      </c>
+      <c r="D57" t="s" s="3">
+        <v>174</v>
+      </c>
+      <c r="E57" t="s" s="3">
+        <v>175</v>
+      </c>
+      <c r="F57" t="s" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58" t="s" s="4">
+        <v>148</v>
+      </c>
+      <c r="B58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" t="s">
+        <v>305</v>
+      </c>
+      <c r="D58" t="s" s="3">
+        <v>306</v>
+      </c>
+      <c r="E58" t="s" s="3">
+        <v>307</v>
+      </c>
+      <c r="F58" t="s" s="3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" t="s" s="5">
+        <v>383</v>
+      </c>
+      <c r="B59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" t="s">
+        <v>399</v>
+      </c>
+      <c r="D59" t="s" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" t="s" s="3">
+        <v>401</v>
+      </c>
+      <c r="F59" t="s" s="3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" t="s" s="4">
+        <v>160</v>
+      </c>
+      <c r="B60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" t="s">
+        <v>335</v>
+      </c>
+      <c r="D60" t="s" s="3">
+        <v>336</v>
+      </c>
+      <c r="E60" t="s" s="3">
+        <v>337</v>
+      </c>
+      <c r="F60" t="s" s="3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s" s="3">
+        <v>69</v>
+      </c>
+      <c r="E61" t="s" s="3">
+        <v>449</v>
+      </c>
+      <c r="F61" t="s" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" t="s" s="4">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" t="s">
         <v>240</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" t="s">
-        <v>178</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B48" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" t="s">
-        <v>217</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B50" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" t="s">
-        <v>210</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B52" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" t="s">
-        <v>251</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="B53" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" t="s">
-        <v>419</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B54" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" t="s">
-        <v>202</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="B56" t="s">
-        <v>28</v>
-      </c>
-      <c r="C56" t="s">
-        <v>423</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="B57" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" t="s">
-        <v>427</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B58" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" t="s">
-        <v>171</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B59" t="s">
-        <v>28</v>
-      </c>
-      <c r="C59" t="s">
-        <v>181</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="B60" t="s">
-        <v>23</v>
-      </c>
-      <c r="C60" t="s">
-        <v>431</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B61" t="s">
-        <v>23</v>
-      </c>
-      <c r="C61" t="s">
-        <v>285</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B62" t="s">
-        <v>28</v>
-      </c>
-      <c r="C62" t="s">
-        <v>236</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>390</v>
+      <c r="D62" t="s" s="3">
+        <v>241</v>
+      </c>
+      <c r="E62" t="s" s="3">
+        <v>242</v>
+      </c>
+      <c r="F62" t="s" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" t="s" s="4">
+        <v>118</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>434</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>381</v>
+        <v>298</v>
+      </c>
+      <c r="D63" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="E63" t="s" s="3">
+        <v>300</v>
+      </c>
+      <c r="F63" t="s" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A64" t="s" s="4">
+        <v>374</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>459</v>
       </c>
       <c r="C64" t="s">
-        <v>437</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>440</v>
+        <v>459</v>
+      </c>
+      <c r="D64" t="s" s="3">
+        <v>459</v>
+      </c>
+      <c r="E64" t="s" s="3">
+        <v>459</v>
+      </c>
+      <c r="F64" t="s" s="3">
+        <v>459</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>19</v>
+      <c r="A65" t="s" s="4">
+        <v>3</v>
       </c>
       <c r="B65" t="s">
         <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>64</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>67</v>
+        <v>24</v>
+      </c>
+      <c r="D65" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="E65" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="F65" t="s" s="3">
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>115</v>
+      <c r="A66" t="s" s="4">
+        <v>458</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>459</v>
       </c>
       <c r="C66" t="s">
-        <v>213</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>216</v>
+        <v>459</v>
+      </c>
+      <c r="D66" t="s" s="3">
+        <v>459</v>
+      </c>
+      <c r="E66" t="s" s="3">
+        <v>459</v>
+      </c>
+      <c r="F66" t="s" s="3">
+        <v>459</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>138</v>
+      <c r="A67" t="s" s="4">
+        <v>129</v>
       </c>
       <c r="B67" t="s">
         <v>28</v>
       </c>
       <c r="C67" t="s">
-        <v>220</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>8</v>
+        <v>459</v>
+      </c>
+      <c r="D67" t="s" s="3">
+        <v>269</v>
+      </c>
+      <c r="E67" t="s" s="3">
+        <v>270</v>
+      </c>
+      <c r="F67" t="s" s="3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" t="s" s="4">
+        <v>119</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>76</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>139</v>
+        <v>243</v>
+      </c>
+      <c r="D68" t="s" s="3">
+        <v>244</v>
+      </c>
+      <c r="E68" t="s" s="3">
+        <v>245</v>
+      </c>
+      <c r="F68" t="s" s="3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A69" t="s" s="4">
+        <v>150</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C69" t="s">
+        <v>342</v>
+      </c>
+      <c r="D69" t="s" s="3">
+        <v>343</v>
+      </c>
+      <c r="E69" t="s" s="3">
+        <v>344</v>
+      </c>
+      <c r="F69" t="s" s="3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" t="s" s="4">
+        <v>128</v>
+      </c>
+      <c r="B70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" t="s">
+        <v>459</v>
+      </c>
+      <c r="D70" t="s" s="3">
+        <v>316</v>
+      </c>
+      <c r="E70" t="s" s="3">
+        <v>317</v>
+      </c>
+      <c r="F70" t="s" s="3">
         <v>318</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B70" t="s">
-        <v>23</v>
-      </c>
-      <c r="C70" t="s">
-        <v>175</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>395</v>
-      </c>
     </row>
     <row r="71" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>157</v>
+      <c r="A71" t="s" s="4">
+        <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C71" t="s">
-        <v>281</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>387</v>
+        <v>101</v>
+      </c>
+      <c r="D71" t="s" s="3">
+        <v>102</v>
+      </c>
+      <c r="E71" t="s" s="3">
+        <v>103</v>
+      </c>
+      <c r="F71" t="s" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A72" t="s" s="4">
+        <v>159</v>
       </c>
       <c r="B72" t="s">
         <v>23</v>
       </c>
       <c r="C72" t="s">
-        <v>441</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>143</v>
+        <v>191</v>
+      </c>
+      <c r="D72" t="s" s="3">
+        <v>192</v>
+      </c>
+      <c r="E72" t="s" s="3">
+        <v>193</v>
+      </c>
+      <c r="F72" t="s" s="3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" t="s" s="4">
+        <v>144</v>
       </c>
       <c r="B73" t="s">
+        <v>459</v>
+      </c>
+      <c r="C73" t="s">
+        <v>179</v>
+      </c>
+      <c r="D73" t="s" s="3">
+        <v>180</v>
+      </c>
+      <c r="E73" t="s" s="3">
+        <v>181</v>
+      </c>
+      <c r="F73" t="s" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A74" t="s" s="4">
+        <v>156</v>
+      </c>
+      <c r="B74" t="s">
         <v>28</v>
       </c>
-      <c r="C73" t="s">
-        <v>257</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" t="s">
-        <v>23</v>
-      </c>
       <c r="C74" t="s">
-        <v>24</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>13</v>
+        <v>206</v>
+      </c>
+      <c r="D74" t="s" s="3">
+        <v>207</v>
+      </c>
+      <c r="E74" t="s" s="3">
+        <v>208</v>
+      </c>
+      <c r="F74" t="s" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" t="s" s="4">
+        <v>147</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C75" t="s">
-        <v>94</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>120</v>
+        <v>459</v>
+      </c>
+      <c r="D75" t="s" s="3">
+        <v>195</v>
+      </c>
+      <c r="E75" t="s" s="3">
+        <v>196</v>
+      </c>
+      <c r="F75" t="s" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" t="s" s="4">
+        <v>133</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>303</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>386</v>
+        <v>354</v>
+      </c>
+      <c r="D76" t="s" s="3">
+        <v>355</v>
+      </c>
+      <c r="E76" t="s" s="3">
+        <v>356</v>
+      </c>
+      <c r="F76" t="s" s="3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" t="s" s="4">
+        <v>168</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="C77" t="s">
-        <v>314</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>388</v>
+        <v>358</v>
+      </c>
+      <c r="D77" t="s" s="3">
+        <v>359</v>
+      </c>
+      <c r="E77" t="s" s="3">
+        <v>453</v>
+      </c>
+      <c r="F77" t="s" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" t="s" s="4">
+        <v>367</v>
       </c>
       <c r="B78" t="s">
         <v>28</v>
       </c>
       <c r="C78" t="s">
-        <v>447</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>377</v>
+        <v>438</v>
+      </c>
+      <c r="D78" t="s" s="3">
+        <v>439</v>
+      </c>
+      <c r="E78" t="s" s="3">
+        <v>440</v>
+      </c>
+      <c r="F78" t="s" s="3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" t="s" s="4">
+        <v>163</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="C79" t="s">
-        <v>451</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>162</v>
+        <v>236</v>
+      </c>
+      <c r="D79" t="s" s="3">
+        <v>237</v>
+      </c>
+      <c r="E79" t="s" s="3">
+        <v>238</v>
+      </c>
+      <c r="F79" t="s" s="3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" t="s" s="4">
+        <v>371</v>
       </c>
       <c r="B80" t="s">
         <v>28</v>
       </c>
       <c r="C80" t="s">
-        <v>341</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>141</v>
+        <v>425</v>
+      </c>
+      <c r="D80" t="s" s="3">
+        <v>426</v>
+      </c>
+      <c r="E80" t="s" s="3">
+        <v>427</v>
+      </c>
+      <c r="F80" t="s" s="3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A81" t="s" s="4">
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C81" t="s">
-        <v>68</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>127</v>
+        <v>41</v>
+      </c>
+      <c r="D81" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="E81" t="s" s="3">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A82" t="s" s="4">
+        <v>116</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C82" t="s">
-        <v>271</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>125</v>
+        <v>220</v>
+      </c>
+      <c r="D82" t="s" s="3">
+        <v>221</v>
+      </c>
+      <c r="E82" t="s" s="3">
+        <v>222</v>
+      </c>
+      <c r="F82" t="s" s="3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" t="s" s="4">
+        <v>155</v>
       </c>
       <c r="B83" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>202</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>0</v>
+        <v>276</v>
+      </c>
+      <c r="D83" t="s" s="3">
+        <v>277</v>
+      </c>
+      <c r="E83" t="s" s="3">
+        <v>278</v>
+      </c>
+      <c r="F83" t="s" s="3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" t="s" s="4">
+        <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C84" t="s">
-        <v>102</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>131</v>
+        <v>97</v>
+      </c>
+      <c r="D84" t="s" s="3">
+        <v>98</v>
+      </c>
+      <c r="E84" t="s" s="3">
+        <v>99</v>
+      </c>
+      <c r="F84" t="s" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A85" t="s" s="4">
+        <v>139</v>
       </c>
       <c r="B85" t="s">
         <v>28</v>
       </c>
       <c r="C85" t="s">
-        <v>337</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>276</v>
+        <v>459</v>
+      </c>
+      <c r="D85" t="s" s="3">
+        <v>260</v>
+      </c>
+      <c r="E85" t="s" s="3">
+        <v>261</v>
+      </c>
+      <c r="F85" t="s" s="3">
+        <v>459</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>142</v>
+      <c r="A86" t="s" s="4">
+        <v>166</v>
       </c>
       <c r="B86" t="s">
         <v>28</v>
       </c>
       <c r="C86" t="s">
-        <v>98</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>391</v>
+        <v>459</v>
+      </c>
+      <c r="D86" t="s" s="3">
+        <v>197</v>
+      </c>
+      <c r="E86" t="s" s="3">
+        <v>198</v>
+      </c>
+      <c r="F86" t="s" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A87" t="s" s="4">
+        <v>123</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="C87" t="s">
+        <v>199</v>
+      </c>
+      <c r="D87" t="s" s="3">
+        <v>200</v>
+      </c>
+      <c r="E87" t="s" s="3">
+        <v>448</v>
+      </c>
+      <c r="F87" t="s" s="3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" t="s" s="4">
+        <v>127</v>
+      </c>
+      <c r="B88" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" t="s">
+        <v>339</v>
+      </c>
+      <c r="D88" t="s" s="3">
+        <v>340</v>
+      </c>
+      <c r="E88" t="s" s="3">
         <v>455</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B88" t="s">
-        <v>71</v>
-      </c>
-      <c r="C88" t="s">
-        <v>206</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+      <c r="F88" t="s" s="3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" t="s" s="4">
+        <v>381</v>
+      </c>
+      <c r="B89" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" t="s">
+        <v>442</v>
+      </c>
+      <c r="D89" t="s" s="3">
+        <v>443</v>
+      </c>
+      <c r="E89" t="s" s="3">
+        <v>444</v>
+      </c>
+      <c r="F89" t="s" s="3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A90" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="B89" t="s">
-        <v>71</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B90" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90" t="s">
+        <v>108</v>
+      </c>
+      <c r="D90" t="s" s="3">
         <v>109</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="E90" t="s" s="3">
+        <v>454</v>
+      </c>
+      <c r="F90" t="s" s="3">
         <v>110</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B90" t="s">
+    </row>
+    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="E91" t="s" s="3">
+        <v>106</v>
+      </c>
+      <c r="F91" t="s" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A92" t="s" s="4">
+        <v>378</v>
+      </c>
+      <c r="B92" t="s">
         <v>28</v>
       </c>
-      <c r="C90" t="s">
-        <v>349</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B91" t="s">
-        <v>28</v>
-      </c>
-      <c r="C91" t="s">
-        <v>337</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B92" t="s">
-        <v>23</v>
-      </c>
       <c r="C92" t="s">
-        <v>105</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>129</v>
+        <v>435</v>
+      </c>
+      <c r="D92" t="s" s="3">
+        <v>436</v>
+      </c>
+      <c r="E92" t="s" s="3">
+        <v>451</v>
+      </c>
+      <c r="F92" t="s" s="3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A93" t="s" s="4">
+        <v>376</v>
       </c>
       <c r="B93" t="s">
         <v>28</v>
       </c>
       <c r="C93" t="s">
-        <v>345</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>130</v>
+        <v>459</v>
+      </c>
+      <c r="D93" t="s" s="3">
+        <v>433</v>
+      </c>
+      <c r="E93" t="s" s="3">
+        <v>434</v>
+      </c>
+      <c r="F93" t="s" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A94" t="s" s="4">
+        <v>143</v>
       </c>
       <c r="B94" t="s">
+        <v>70</v>
+      </c>
+      <c r="C94" t="s">
+        <v>202</v>
+      </c>
+      <c r="D94" t="s" s="3">
+        <v>203</v>
+      </c>
+      <c r="E94" t="s" s="3">
+        <v>204</v>
+      </c>
+      <c r="F94" t="s" s="3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A95" t="s" s="4">
+        <v>140</v>
+      </c>
+      <c r="B95" t="s">
         <v>28</v>
       </c>
-      <c r="C94" t="s">
-        <v>361</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B95" t="s">
-        <v>23</v>
-      </c>
       <c r="C95" t="s">
-        <v>325</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>135</v>
+        <v>459</v>
+      </c>
+      <c r="D95" t="s" s="3">
+        <v>250</v>
+      </c>
+      <c r="E95" t="s" s="3">
+        <v>251</v>
+      </c>
+      <c r="F95" t="s" s="3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" t="s" s="4">
+        <v>152</v>
       </c>
       <c r="B96" t="s">
         <v>28</v>
       </c>
       <c r="C96" t="s">
-        <v>361</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>170</v>
+        <v>309</v>
+      </c>
+      <c r="D96" t="s" s="3">
+        <v>310</v>
+      </c>
+      <c r="E96" t="s" s="3">
+        <v>452</v>
+      </c>
+      <c r="F96" t="s" s="3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A97" t="s" s="4">
+        <v>131</v>
       </c>
       <c r="B97" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C97" t="s">
-        <v>365</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>154</v>
+        <v>331</v>
+      </c>
+      <c r="D97" t="s" s="3">
+        <v>332</v>
+      </c>
+      <c r="E97" t="s" s="3">
+        <v>333</v>
+      </c>
+      <c r="F97" t="s" s="3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A98" t="s" s="4">
+        <v>117</v>
       </c>
       <c r="B98" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" t="s">
+        <v>319</v>
+      </c>
+      <c r="D98" t="s" s="3">
+        <v>320</v>
+      </c>
+      <c r="E98" t="s" s="3">
+        <v>321</v>
+      </c>
+      <c r="F98" t="s" s="3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A99" t="s" s="4">
+        <v>125</v>
+      </c>
+      <c r="B99" t="s">
         <v>28</v>
       </c>
-      <c r="C98" t="s">
-        <v>314</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="345" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B99" t="s">
-        <v>71</v>
-      </c>
       <c r="C99" t="s">
-        <v>369</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="255" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>160</v>
+        <v>266</v>
+      </c>
+      <c r="D99" t="s" s="3">
+        <v>267</v>
+      </c>
+      <c r="E99" t="s" s="3">
+        <v>268</v>
+      </c>
+      <c r="F99" t="s" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="315" x14ac:dyDescent="0.25">
+      <c r="A100" t="s" s="4">
+        <v>158</v>
       </c>
       <c r="B100" t="s">
         <v>28</v>
       </c>
       <c r="C100" t="s">
-        <v>373</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>376</v>
+        <v>364</v>
+      </c>
+      <c r="D100" t="s" s="3">
+        <v>365</v>
+      </c>
+      <c r="E100" t="s" s="3">
+        <v>456</v>
+      </c>
+      <c r="F100" t="s" s="3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s" s="4">
+        <v>161</v>
+      </c>
+      <c r="B101" t="s">
+        <v>70</v>
+      </c>
+      <c r="C101" t="s">
+        <v>361</v>
+      </c>
+      <c r="D101" t="s" s="3">
+        <v>362</v>
+      </c>
+      <c r="E101" t="s" s="3">
+        <v>457</v>
+      </c>
+      <c r="F101" t="s" s="3">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
